--- a/ex5/results.xlsx
+++ b/ex5/results.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyakobi\Documents\GitHub\multi\ex5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19320" windowHeight="7230"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19320" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
-    <sheet name="גיליון2" sheetId="2" r:id="rId2"/>
-    <sheet name="גיליון3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="גיליון1" sheetId="1" r:id="rId2"/>
+    <sheet name="גיליון2" sheetId="2" r:id="rId3"/>
+    <sheet name="גיליון3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
   <si>
     <t>Test1</t>
   </si>
@@ -71,16 +77,52 @@
   <si>
     <t>p = 0.5</t>
   </si>
+  <si>
+    <t>Heavy writes</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>1 thread</t>
+  </si>
+  <si>
+    <t>8 thread</t>
+  </si>
+  <si>
+    <t>32 thread</t>
+  </si>
+  <si>
+    <t>locking</t>
+  </si>
+  <si>
+    <t>optimistic</t>
+  </si>
+  <si>
+    <t>lockfree</t>
+  </si>
+  <si>
+    <t>linearprobe</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>speedup</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -89,7 +131,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -114,36 +156,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="he-IL"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Mostly Reads</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>גיליון1!$D$7:$G$7</c:f>
@@ -186,32 +253,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="91469312"/>
-        <c:axId val="91470848"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="290330176"/>
+        <c:axId val="290332528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91469312"/>
+        <c:axId val="290330176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91470848"/>
+        <c:crossAx val="290332528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91470848"/>
+        <c:axId val="290332528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91469312"/>
+        <c:crossAx val="290330176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -219,8 +303,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -232,22 +319,36 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="he-IL"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Heavy Writes</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>גיליון1!$D$7:$G$7</c:f>
@@ -290,32 +391,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97352320"/>
-        <c:axId val="113316224"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="290332920"/>
+        <c:axId val="290330568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97352320"/>
+        <c:axId val="290332920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113316224"/>
+        <c:crossAx val="290330568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113316224"/>
+        <c:axId val="290330568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97352320"/>
+        <c:crossAx val="290332920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -323,8 +441,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -336,12 +457,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="he-IL"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -384,6 +517,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -427,6 +561,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -470,6 +605,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -513,32 +649,47 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="122104832"/>
-        <c:axId val="122103296"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="290331744"/>
+        <c:axId val="290330960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="122104832"/>
+        <c:axId val="290331744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122103296"/>
+        <c:crossAx val="290330960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="122103296"/>
+        <c:axId val="290330960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122104832"/>
+        <c:crossAx val="290331744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -546,8 +697,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -559,12 +713,24 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="he-IL"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -607,6 +773,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -650,6 +817,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -693,6 +861,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -736,32 +905,47 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="127084032"/>
-        <c:axId val="127081472"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="292015144"/>
+        <c:axId val="292020240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127084032"/>
+        <c:axId val="292015144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127081472"/>
+        <c:crossAx val="292020240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127081472"/>
+        <c:axId val="292020240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127084032"/>
+        <c:crossAx val="292015144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -769,8 +953,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -782,12 +969,24 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="he-IL"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -830,6 +1029,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -873,6 +1073,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -916,6 +1117,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -959,32 +1161,47 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="133887104"/>
-        <c:axId val="133885312"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="292017888"/>
+        <c:axId val="292017104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133887104"/>
+        <c:axId val="292017888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133885312"/>
+        <c:crossAx val="292017104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133885312"/>
+        <c:axId val="292017104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133887104"/>
+        <c:crossAx val="292017888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -992,8 +1209,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1001,6 +1221,4571 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>p=0.5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42588528895996192"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0257498927230003E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.71631794082764133"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Locking</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$114:$M$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$115:$M$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80676328502415462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5362318840579712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5942028985507246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Optimistic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$114:$M$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$116:$M$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86956521739130432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6570048309178742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0338164251207731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lock Free</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$114:$M$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$117:$M$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.91787439613526567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8067632850241546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8405797101449277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LinearProbe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$114:$M$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$118:$M$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9468599033816425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5942028985507246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4202898550724639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="292018672"/>
+        <c:axId val="292018280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="292018672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292018280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="292018280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292018672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>p=0.75</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42588528895996192"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0257498927230003E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.71631794082764133"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Locking</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$127:$M$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$128:$M$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.87906976744186005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4139534883720932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9581395348837209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Optimistic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$127:$M$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$129:$M$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.87906976744186049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5255813953488371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8279069767441865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lock Free</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$127:$M$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$130:$M$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93023255813953487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2279069767441859</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2883720930232556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LinearProbe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$127:$M$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$131:$M$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.8418604651162791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.558139534883721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.213953488372093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="292014360"/>
+        <c:axId val="292014752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="292014360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292014752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="292014752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292014360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>p=0.99</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42588528895996192"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0257498927230003E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.71631794082764133"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Locking</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$143:$M$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$144:$M$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.82407407407407407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1388888888888888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Optimistic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$143:$M$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$145:$M$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.90277777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6064814814814814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0046296296296298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lock Free</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$143:$M$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$146:$M$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.91203703703703709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8518518518518516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0555555555555554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LinearProbe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$143:$M$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$K$147:$M$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85185185185185186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5601851851851851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8657407407407405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="292016320"/>
+        <c:axId val="292017496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="292016320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292017496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="292017496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292016320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>w=4000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42588528895996192"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0257498927230003E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.71631794082764133"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Locking</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$H$165:$J$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$H$166:$J$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.8303108808290155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.142487046632124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8018134715025906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Optimistic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$H$165:$J$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$H$167:$J$167</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85492227979274615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7422279792746114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0689119171000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lock Free</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$H$165:$J$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$H$168:$J$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9689119170984456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2759067357512954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3082901554404147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LinearProbe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$H$165:$J$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$H$169:$J$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.77979274611398963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8277202072538858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3873056994818653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="290328216"/>
+        <c:axId val="290328608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="290328216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290328608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="290328608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290328216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1155,11 +5940,137 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1201,7 +6112,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1233,9 +6144,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1267,6 +6179,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1442,14 +6355,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="T99" sqref="T99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O179"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F159" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164:J169"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1804,7 +6735,7 @@
         <v>0.95734597156398105</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15">
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -2358,6 +7289,1120 @@
       </c>
       <c r="L84">
         <v>5.9589041095890414</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>207</v>
+      </c>
+      <c r="D101">
+        <v>167</v>
+      </c>
+      <c r="E101">
+        <v>180</v>
+      </c>
+      <c r="F101">
+        <v>190</v>
+      </c>
+      <c r="G101">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>215</v>
+      </c>
+      <c r="D102">
+        <v>189</v>
+      </c>
+      <c r="E102">
+        <v>189</v>
+      </c>
+      <c r="F102">
+        <v>200</v>
+      </c>
+      <c r="G102">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>216</v>
+      </c>
+      <c r="D103">
+        <v>178</v>
+      </c>
+      <c r="E103">
+        <v>195</v>
+      </c>
+      <c r="F103">
+        <v>197</v>
+      </c>
+      <c r="G103">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>525</v>
+      </c>
+      <c r="E104">
+        <v>550</v>
+      </c>
+      <c r="F104">
+        <v>581</v>
+      </c>
+      <c r="G104">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>519</v>
+      </c>
+      <c r="E105">
+        <v>543</v>
+      </c>
+      <c r="F105">
+        <v>694</v>
+      </c>
+      <c r="G105">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>480</v>
+      </c>
+      <c r="E106">
+        <v>563</v>
+      </c>
+      <c r="F106">
+        <v>616</v>
+      </c>
+      <c r="G106">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>744</v>
+      </c>
+      <c r="E107">
+        <v>835</v>
+      </c>
+      <c r="F107">
+        <v>1209</v>
+      </c>
+      <c r="G107">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>851</v>
+      </c>
+      <c r="E108">
+        <v>1038</v>
+      </c>
+      <c r="F108">
+        <v>1137</v>
+      </c>
+      <c r="G108">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>678</v>
+      </c>
+      <c r="E109">
+        <v>865</v>
+      </c>
+      <c r="F109">
+        <v>1092</v>
+      </c>
+      <c r="G109">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <f>D101/C101</f>
+        <v>0.80676328502415462</v>
+      </c>
+      <c r="E113">
+        <f>E101/C101</f>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="F113">
+        <f>F101/C101</f>
+        <v>0.91787439613526567</v>
+      </c>
+      <c r="G113">
+        <f>G101/C101</f>
+        <v>0.9468599033816425</v>
+      </c>
+      <c r="K113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <f>D102/C102</f>
+        <v>0.87906976744186049</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ref="E114:E115" si="10">E102/C102</f>
+        <v>0.87906976744186049</v>
+      </c>
+      <c r="F114">
+        <f t="shared" ref="F114:F115" si="11">F102/C102</f>
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="G114">
+        <f t="shared" ref="G114:G115" si="12">G102/C102</f>
+        <v>0.8418604651162791</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <f>D103/C103</f>
+        <v>0.82407407407407407</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="10"/>
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="11"/>
+        <v>0.91203703703703709</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="12"/>
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="K115">
+        <v>0.80676328502415462</v>
+      </c>
+      <c r="L115">
+        <v>2.5362318840579712</v>
+      </c>
+      <c r="M115">
+        <v>3.5942028985507246</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <f>D104/C101</f>
+        <v>2.5362318840579712</v>
+      </c>
+      <c r="E116">
+        <f>E104/C101</f>
+        <v>2.6570048309178742</v>
+      </c>
+      <c r="F116">
+        <f>F104/C101</f>
+        <v>2.8067632850241546</v>
+      </c>
+      <c r="G116">
+        <f>G104/C101</f>
+        <v>2.5942028985507246</v>
+      </c>
+      <c r="K116">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="L116">
+        <v>2.6570048309178742</v>
+      </c>
+      <c r="M116">
+        <v>4.0338164251207731</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <f t="shared" ref="D117:D118" si="13">D105/C102</f>
+        <v>2.4139534883720932</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ref="E117:E118" si="14">E105/C102</f>
+        <v>2.5255813953488371</v>
+      </c>
+      <c r="F117">
+        <f t="shared" ref="F117:F118" si="15">F105/C102</f>
+        <v>3.2279069767441859</v>
+      </c>
+      <c r="G117">
+        <f t="shared" ref="G117:G118" si="16">G105/C102</f>
+        <v>2.558139534883721</v>
+      </c>
+      <c r="K117">
+        <v>0.91787439613526567</v>
+      </c>
+      <c r="L117">
+        <v>2.8067632850241546</v>
+      </c>
+      <c r="M117">
+        <v>5.8405797101449277</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="13"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="14"/>
+        <v>2.6064814814814814</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="15"/>
+        <v>2.8518518518518516</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="16"/>
+        <v>2.5601851851851851</v>
+      </c>
+      <c r="K118">
+        <v>0.9468599033816425</v>
+      </c>
+      <c r="L118">
+        <v>2.5942028985507246</v>
+      </c>
+      <c r="M118">
+        <v>5.4202898550724639</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <f>D107/C101</f>
+        <v>3.5942028985507246</v>
+      </c>
+      <c r="E119">
+        <f>E107/C101</f>
+        <v>4.0338164251207731</v>
+      </c>
+      <c r="F119">
+        <f>F107/C101</f>
+        <v>5.8405797101449277</v>
+      </c>
+      <c r="G119">
+        <f>G107/C101</f>
+        <v>5.4202898550724639</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <f t="shared" ref="D120:D121" si="17">D108/C102</f>
+        <v>3.9581395348837209</v>
+      </c>
+      <c r="E120">
+        <f t="shared" ref="E120:E121" si="18">E108/C102</f>
+        <v>4.8279069767441865</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ref="F120:F121" si="19">F108/C102</f>
+        <v>5.2883720930232556</v>
+      </c>
+      <c r="G120">
+        <f t="shared" ref="G120:G121" si="20">G108/C102</f>
+        <v>4.213953488372093</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="17"/>
+        <v>3.1388888888888888</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="18"/>
+        <v>4.0046296296296298</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="19"/>
+        <v>5.0555555555555554</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="20"/>
+        <v>4.8657407407407405</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="D123">
+        <v>0.80676328502415462</v>
+      </c>
+      <c r="E123">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="F123">
+        <v>0.91787439613526567</v>
+      </c>
+      <c r="G123">
+        <v>0.9468599033816425</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="D124">
+        <v>0.87906976744186049</v>
+      </c>
+      <c r="E124">
+        <v>0.87906976744186049</v>
+      </c>
+      <c r="F124">
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="G124">
+        <v>0.8418604651162791</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="D125">
+        <v>0.82407407407407407</v>
+      </c>
+      <c r="E125">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="F125">
+        <v>0.91203703703703709</v>
+      </c>
+      <c r="G125">
+        <v>0.85185185185185186</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="D126">
+        <v>2.5362318840579712</v>
+      </c>
+      <c r="E126">
+        <v>2.6570048309178742</v>
+      </c>
+      <c r="F126">
+        <v>2.8067632850241546</v>
+      </c>
+      <c r="G126">
+        <v>2.5942028985507246</v>
+      </c>
+      <c r="K126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="D127">
+        <v>2.4139534883720932</v>
+      </c>
+      <c r="E127">
+        <v>2.5255813953488371</v>
+      </c>
+      <c r="F127">
+        <v>3.2279069767441859</v>
+      </c>
+      <c r="G127">
+        <v>2.558139534883721</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+      <c r="M127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="D128">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="E128">
+        <v>2.6064814814814814</v>
+      </c>
+      <c r="F128">
+        <v>2.8518518518518516</v>
+      </c>
+      <c r="G128">
+        <v>2.5601851851851851</v>
+      </c>
+      <c r="K128">
+        <v>0.87906976744186005</v>
+      </c>
+      <c r="L128">
+        <v>2.4139534883720932</v>
+      </c>
+      <c r="M128">
+        <v>3.9581395348837209</v>
+      </c>
+    </row>
+    <row r="129" spans="4:13">
+      <c r="D129">
+        <v>3.5942028985507246</v>
+      </c>
+      <c r="E129">
+        <v>4.0338164251207731</v>
+      </c>
+      <c r="F129">
+        <v>5.8405797101449277</v>
+      </c>
+      <c r="G129">
+        <v>5.4202898550724639</v>
+      </c>
+      <c r="K129">
+        <v>0.87906976744186049</v>
+      </c>
+      <c r="L129">
+        <v>2.5255813953488371</v>
+      </c>
+      <c r="M129">
+        <v>4.8279069767441865</v>
+      </c>
+    </row>
+    <row r="130" spans="4:13">
+      <c r="D130">
+        <v>3.9581395348837209</v>
+      </c>
+      <c r="E130">
+        <v>4.8279069767441865</v>
+      </c>
+      <c r="F130">
+        <v>5.2883720930232556</v>
+      </c>
+      <c r="G130">
+        <v>4.213953488372093</v>
+      </c>
+      <c r="K130">
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="L130">
+        <v>3.2279069767441859</v>
+      </c>
+      <c r="M130">
+        <v>5.2883720930232556</v>
+      </c>
+    </row>
+    <row r="131" spans="4:13">
+      <c r="D131">
+        <v>3.1388888888888888</v>
+      </c>
+      <c r="E131">
+        <v>4.0046296296296298</v>
+      </c>
+      <c r="F131">
+        <v>5.0555555555555554</v>
+      </c>
+      <c r="G131">
+        <v>4.8657407407407405</v>
+      </c>
+      <c r="K131">
+        <v>0.8418604651162791</v>
+      </c>
+      <c r="L131">
+        <v>2.558139534883721</v>
+      </c>
+      <c r="M131">
+        <v>4.213953488372093</v>
+      </c>
+    </row>
+    <row r="142" spans="4:13">
+      <c r="K142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="4:13">
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>4</v>
+      </c>
+      <c r="M143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="4:13">
+      <c r="K144">
+        <v>0.82407407407407407</v>
+      </c>
+      <c r="L144">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="M144">
+        <v>3.1388888888888888</v>
+      </c>
+    </row>
+    <row r="145" spans="11:13">
+      <c r="K145">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="L145">
+        <v>2.6064814814814814</v>
+      </c>
+      <c r="M145">
+        <v>4.0046296296296298</v>
+      </c>
+    </row>
+    <row r="146" spans="11:13">
+      <c r="K146">
+        <v>0.91203703703703709</v>
+      </c>
+      <c r="L146">
+        <v>2.8518518518518516</v>
+      </c>
+      <c r="M146">
+        <v>5.0555555555555554</v>
+      </c>
+    </row>
+    <row r="147" spans="11:13">
+      <c r="K147">
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="L147">
+        <v>2.5601851851851851</v>
+      </c>
+      <c r="M147">
+        <v>4.8657407407407405</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163">
+        <v>193</v>
+      </c>
+      <c r="B163">
+        <v>193</v>
+      </c>
+      <c r="C163">
+        <v>193</v>
+      </c>
+      <c r="D163">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164" t="s">
+        <v>28</v>
+      </c>
+      <c r="I164" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" t="s">
+        <v>21</v>
+      </c>
+      <c r="E165" t="s">
+        <v>21</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>8</v>
+      </c>
+      <c r="J165">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166">
+        <v>157</v>
+      </c>
+      <c r="B166">
+        <v>163</v>
+      </c>
+      <c r="C166">
+        <v>162</v>
+      </c>
+      <c r="D166">
+        <v>159</v>
+      </c>
+      <c r="E166">
+        <f>AVERAGE(A166:D166)</f>
+        <v>160.25</v>
+      </c>
+      <c r="G166" t="s">
+        <v>24</v>
+      </c>
+      <c r="H166">
+        <f>E166/D163</f>
+        <v>0.8303108808290155</v>
+      </c>
+      <c r="I166">
+        <f>E171/D163</f>
+        <v>4.142487046632124</v>
+      </c>
+      <c r="J166">
+        <f>E176/D163</f>
+        <v>1.8018134715025906</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>163</v>
+      </c>
+      <c r="C167">
+        <v>168</v>
+      </c>
+      <c r="D167">
+        <v>162</v>
+      </c>
+      <c r="E167">
+        <f t="shared" ref="E167:E169" si="21">AVERAGE(A167:D167)</f>
+        <v>165</v>
+      </c>
+      <c r="G167" t="s">
+        <v>25</v>
+      </c>
+      <c r="H167">
+        <f>E167/D163</f>
+        <v>0.85492227979274615</v>
+      </c>
+      <c r="I167">
+        <f>E172/D163</f>
+        <v>4.7422279792746114</v>
+      </c>
+      <c r="J167">
+        <v>4.0689119171000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168">
+        <v>187</v>
+      </c>
+      <c r="B168">
+        <v>184</v>
+      </c>
+      <c r="C168">
+        <v>191</v>
+      </c>
+      <c r="D168">
+        <v>186</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="21"/>
+        <v>187</v>
+      </c>
+      <c r="G168" t="s">
+        <v>26</v>
+      </c>
+      <c r="H168">
+        <f>E168/D163</f>
+        <v>0.9689119170984456</v>
+      </c>
+      <c r="I168">
+        <f>E173/D163</f>
+        <v>6.2759067357512954</v>
+      </c>
+      <c r="J168">
+        <f>E178/D163</f>
+        <v>3.3082901554404147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169">
+        <v>156</v>
+      </c>
+      <c r="B169">
+        <v>153</v>
+      </c>
+      <c r="C169">
+        <v>141</v>
+      </c>
+      <c r="D169">
+        <v>152</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="21"/>
+        <v>150.5</v>
+      </c>
+      <c r="G169" t="s">
+        <v>27</v>
+      </c>
+      <c r="H169">
+        <f>E169/D163</f>
+        <v>0.77979274611398963</v>
+      </c>
+      <c r="I169">
+        <f>E174/D163</f>
+        <v>3.8277202072538858</v>
+      </c>
+      <c r="J169">
+        <f>E179/D163</f>
+        <v>1.3873056994818653</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
+        <v>22</v>
+      </c>
+      <c r="B170" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" t="s">
+        <v>22</v>
+      </c>
+      <c r="D170" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171">
+        <v>838</v>
+      </c>
+      <c r="B171">
+        <v>736</v>
+      </c>
+      <c r="C171">
+        <v>759</v>
+      </c>
+      <c r="D171">
+        <v>865</v>
+      </c>
+      <c r="E171">
+        <f>AVERAGE(A171:D171)</f>
+        <v>799.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172">
+        <v>1010</v>
+      </c>
+      <c r="B172">
+        <v>923</v>
+      </c>
+      <c r="C172">
+        <v>874</v>
+      </c>
+      <c r="D172">
+        <v>854</v>
+      </c>
+      <c r="E172">
+        <f t="shared" ref="E172:E174" si="22">AVERAGE(A172:D172)</f>
+        <v>915.25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173">
+        <v>1165</v>
+      </c>
+      <c r="B173">
+        <v>1273</v>
+      </c>
+      <c r="C173">
+        <v>1116</v>
+      </c>
+      <c r="D173">
+        <v>1291</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="22"/>
+        <v>1211.25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174">
+        <v>762</v>
+      </c>
+      <c r="B174">
+        <v>886</v>
+      </c>
+      <c r="C174">
+        <v>361</v>
+      </c>
+      <c r="D174">
+        <v>946</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="22"/>
+        <v>738.75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" t="s">
+        <v>23</v>
+      </c>
+      <c r="E175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176">
+        <v>155</v>
+      </c>
+      <c r="B176">
+        <v>484</v>
+      </c>
+      <c r="C176">
+        <v>103</v>
+      </c>
+      <c r="D176">
+        <v>649</v>
+      </c>
+      <c r="E176">
+        <f>AVERAGE(A176:D176)</f>
+        <v>347.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>854</v>
+      </c>
+      <c r="B177">
+        <v>712</v>
+      </c>
+      <c r="C177">
+        <v>750</v>
+      </c>
+      <c r="D177">
+        <v>825</v>
+      </c>
+      <c r="E177">
+        <f t="shared" ref="E177:E179" si="23">AVERAGE(A177:D177)</f>
+        <v>785.25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>626</v>
+      </c>
+      <c r="B178">
+        <v>685</v>
+      </c>
+      <c r="C178">
+        <v>644</v>
+      </c>
+      <c r="D178">
+        <v>599</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="23"/>
+        <v>638.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>213</v>
+      </c>
+      <c r="B179">
+        <v>357</v>
+      </c>
+      <c r="C179">
+        <v>311</v>
+      </c>
+      <c r="D179">
+        <v>190</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="23"/>
+        <v>267.75</v>
       </c>
     </row>
   </sheetData>
@@ -2367,25 +8412,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
